--- a/resource/resource/物编.xlsx
+++ b/resource/resource/物编.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="2"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="技能" sheetId="3" r:id="rId3"/>
     <sheet name="科技" sheetId="4" r:id="rId4"/>
     <sheet name="魔法效果" sheetId="5" r:id="rId5"/>
-    <sheet name="可破坏物" sheetId="6" r:id="rId6"/>
+    <sheet name="可破坏物" sheetId="8" r:id="rId6"/>
+    <sheet name="装饰物" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="377">
   <si>
     <t>id</t>
   </si>
@@ -2950,7 +2951,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -3667,11 +3668,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet6"/>
+  <sheetPr/>
   <dimension ref="A1:BB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelRow="2"/>
@@ -4007,6 +4008,203 @@
       <c r="BB2" s="2" t="s">
         <v>376</v>
       </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:54">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:BB3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="54" width="11.6018518518519" style="2" customWidth="1"/>
+    <col min="55" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:54">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:54">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:54">
       <c r="A3" s="2"/>
